--- a/第三次迭代/会议纪要2018.11.15.xlsx
+++ b/第三次迭代/会议纪要2018.11.15.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="会议纪要" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>会议准备</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,34 @@
   </si>
   <si>
     <t>培训github更改的指令，今后用统一的原型更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训github命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会后已提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各成员均可打开原型进行更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各成员进行了github上的test的更改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D12" sqref="A6:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -618,9 +646,133 @@
         <v>60</v>
       </c>
     </row>
+    <row r="14" spans="1:5" ht="33.75" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2">
+        <f>SUM(E16:E20)</f>
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
